--- a/data/trans_bre/IP25-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP25-Edad-trans_bre.xlsx
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,17 +720,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,95</t>
+          <t>3,46</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,3</t>
+          <t>-1,75</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,1</t>
+          <t>-0,11</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -740,17 +740,17 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,99%</t>
+          <t>3,62%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,3%</t>
+          <t>-1,76%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>1,13%</t>
+          <t>-0,12%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 3,43</t>
+          <t>1,32; 6,24</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 2,38</t>
+          <t>-4,11; -0,01</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 3,24</t>
+          <t>-2,58; 2,14</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 3,62</t>
+          <t>1,36; 6,71</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 2,47</t>
+          <t>-4,13; -0,01</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 3,39</t>
+          <t>-2,62; 2,22</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,17 +820,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,46</t>
+          <t>0,95</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,75</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,11</t>
+          <t>1,1</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -840,17 +840,17 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>3,62%</t>
+          <t>0,99%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-1,76%</t>
+          <t>0,3%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-0,12%</t>
+          <t>1,13%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,32; 6,24</t>
+          <t>-1,54; 3,43</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,11; -0,01</t>
+          <t>-1,95; 2,38</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 2,14</t>
+          <t>-1,19; 3,24</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,36; 6,71</t>
+          <t>-1,57; 3,62</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,13; -0,01</t>
+          <t>-1,98; 2,47</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,62; 2,22</t>
+          <t>-1,21; 3,39</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">

--- a/data/trans_bre/IP25-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP25-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,12 +620,12 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,37</t>
+          <t>4,97</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-5,33</t>
+          <t>-4,39</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -640,17 +640,17 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>6,39%</t>
+          <t>10,81%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-7,04%</t>
+          <t>-7,16%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-8,6%</t>
+          <t>-10,54%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 11,58</t>
+          <t>-5,39; 15,53</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-12,88; 1,03</t>
+          <t>-14,36; 4,1</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-13,31; 0,58</t>
+          <t>-17,01; 3,27</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,17 +688,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,65; 17,98</t>
+          <t>-10,52; 38,04</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-16,46; 1,42</t>
+          <t>-21,54; 7,29</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-16,75; 0,7</t>
+          <t>-25,23; 6,29</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,17 +720,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,46</t>
+          <t>1,8</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-1,75</t>
+          <t>-2,2</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,11</t>
+          <t>0,93</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -740,17 +740,17 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>3,62%</t>
+          <t>1,88%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-1,76%</t>
+          <t>-2,22%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-0,12%</t>
+          <t>0,96%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,32; 6,24</t>
+          <t>-0,45; 4,91</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-4,11; -0,01</t>
+          <t>-4,6; -0,3</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 2,14</t>
+          <t>-1,63; 3,39</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,36; 6,71</t>
+          <t>-0,46; 5,32</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-4,13; -0,01</t>
+          <t>-4,63; -0,32</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-2,62; 2,22</t>
+          <t>-1,65; 3,57</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,17 +820,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,95</t>
+          <t>3,19</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,3</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,1</t>
+          <t>-1,75</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -840,17 +840,17 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,99%</t>
+          <t>3,35%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,3%</t>
+          <t>0,1%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,13%</t>
+          <t>-1,77%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 3,43</t>
+          <t>0,14; 6,72</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 2,38</t>
+          <t>-2,33; 2,79</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 3,24</t>
+          <t>-4,27; 0,57</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 3,62</t>
+          <t>0,14; 7,27</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 2,47</t>
+          <t>-2,34; 2,9</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 3,39</t>
+          <t>-4,34; 0,58</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,17 +920,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,78</t>
+          <t>0,36</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-2,17</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-1,49</t>
+          <t>2,48</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -940,17 +940,17 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>3,17%</t>
+          <t>0,37%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-2,38%</t>
+          <t>0,02%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-1,64%</t>
+          <t>2,59%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,09; 5,65</t>
+          <t>-2,45; 3,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,72; 0,5</t>
+          <t>-2,66; 3,15</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,84; 1,09</t>
+          <t>-0,38; 5,85</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,1; 6,52</t>
+          <t>-2,47; 3,17</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-5,12; 0,55</t>
+          <t>-2,69; 3,28</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-4,17; 1,21</t>
+          <t>-0,41; 6,26</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1007,9 +1007,117 @@
         </is>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>2,78</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-2,17</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-1,49</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>3,17%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>-2,38%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-1,64%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-0,01; 5,4</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-4,5; 0,57</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-3,75; 1,27</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0,1; 6,25</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-4,85; 0,62</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-4,08; 1,42</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>

--- a/data/trans_bre/IP25-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP25-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,39; 15,53</t>
+          <t>-6,48; 15,49</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-14,36; 4,1</t>
+          <t>-14,64; 5,59</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-17,01; 3,27</t>
+          <t>-15,87; 3,44</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,17 +688,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-10,52; 38,04</t>
+          <t>-12,41; 38,49</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-21,54; 7,29</t>
+          <t>-22,0; 10,1</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-25,23; 6,29</t>
+          <t>-23,72; 6,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 4,91</t>
+          <t>-0,65; 4,33</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-4,6; -0,3</t>
+          <t>-4,64; -0,17</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 3,39</t>
+          <t>-1,67; 3,14</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 5,32</t>
+          <t>-0,66; 4,62</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-4,63; -0,32</t>
+          <t>-4,67; -0,17</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 3,57</t>
+          <t>-1,66; 3,28</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,14; 6,72</t>
+          <t>0,06; 6,75</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 2,79</t>
+          <t>-2,44; 2,7</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,27; 0,57</t>
+          <t>-4,55; 0,43</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,14; 7,27</t>
+          <t>0,07; 7,28</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 2,9</t>
+          <t>-2,5; 2,8</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-4,34; 0,58</t>
+          <t>-4,59; 0,44</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 3,0</t>
+          <t>-2,39; 3,17</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 3,15</t>
+          <t>-2,89; 2,79</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 5,85</t>
+          <t>-0,35; 5,84</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 3,17</t>
+          <t>-2,42; 3,36</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-2,69; 3,28</t>
+          <t>-2,95; 2,9</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 6,26</t>
+          <t>-0,35; 6,31</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1068,17 +1068,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 5,4</t>
+          <t>0,29; 5,68</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,5; 0,57</t>
+          <t>-4,8; 0,48</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 1,27</t>
+          <t>-4,02; 1,02</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1088,17 +1088,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,1; 6,25</t>
+          <t>0,33; 6,6</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,85; 0,62</t>
+          <t>-5,22; 0,53</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 1,42</t>
+          <t>-4,37; 1,1</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">

--- a/data/trans_bre/IP25-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP25-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,48; 15,49</t>
+          <t>-5,99; 15,91</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-14,64; 5,59</t>
+          <t>-14,23; 4,75</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-15,87; 3,44</t>
+          <t>-17,08; 2,56</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,17 +688,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-12,41; 38,49</t>
+          <t>-11,49; 39,05</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-22,0; 10,1</t>
+          <t>-21,49; 8,4</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-23,72; 6,0</t>
+          <t>-25,57; 4,49</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 4,33</t>
+          <t>-0,58; 4,58</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-4,64; -0,17</t>
+          <t>-4,48; -0,26</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 3,14</t>
+          <t>-1,74; 3,35</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 4,62</t>
+          <t>-0,6; 4,89</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-4,67; -0,17</t>
+          <t>-4,51; -0,27</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 3,28</t>
+          <t>-1,79; 3,53</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,06; 6,75</t>
+          <t>-0,02; 6,96</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 2,7</t>
+          <t>-2,25; 2,69</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,55; 0,43</t>
+          <t>-4,6; 0,68</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,07; 7,28</t>
+          <t>-0,02; 7,57</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 2,8</t>
+          <t>-2,27; 2,78</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-4,59; 0,44</t>
+          <t>-4,64; 0,67</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 3,17</t>
+          <t>-2,26; 2,83</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 2,79</t>
+          <t>-2,74; 2,71</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 5,84</t>
+          <t>-0,32; 5,9</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 3,36</t>
+          <t>-2,32; 3,01</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-2,95; 2,9</t>
+          <t>-2,77; 2,82</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 6,31</t>
+          <t>-0,33; 6,37</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1068,17 +1068,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,29; 5,68</t>
+          <t>0,09; 5,65</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,8; 0,48</t>
+          <t>-4,72; 0,5</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,02; 1,02</t>
+          <t>-3,84; 1,09</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1088,17 +1088,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,33; 6,6</t>
+          <t>0,1; 6,52</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-5,22; 0,53</t>
+          <t>-5,12; 0,55</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-4,37; 1,1</t>
+          <t>-4,17; 1,21</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
